--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Itgal</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7715743674877</v>
+        <v>4.589083666666666</v>
       </c>
       <c r="H2">
-        <v>1.7715743674877</v>
+        <v>13.767251</v>
       </c>
       <c r="I2">
-        <v>0.5125730397583238</v>
+        <v>0.7170542197587623</v>
       </c>
       <c r="J2">
-        <v>0.5125730397583238</v>
+        <v>0.7170542197587624</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.04779714419334</v>
+        <v>19.43258433333333</v>
       </c>
       <c r="N2">
-        <v>1.04779714419334</v>
+        <v>58.29775300000001</v>
       </c>
       <c r="O2">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457537</v>
       </c>
       <c r="P2">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457538</v>
       </c>
       <c r="Q2">
-        <v>1.856250562979735</v>
+        <v>89.17775536522255</v>
       </c>
       <c r="R2">
-        <v>1.856250562979735</v>
+        <v>802.5997982870031</v>
       </c>
       <c r="S2">
-        <v>0.02957778858514567</v>
+        <v>0.3603412134912822</v>
       </c>
       <c r="T2">
-        <v>0.02957778858514567</v>
+        <v>0.3603412134912823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7715743674877</v>
+        <v>4.589083666666666</v>
       </c>
       <c r="H3">
-        <v>1.7715743674877</v>
+        <v>13.767251</v>
       </c>
       <c r="I3">
-        <v>0.5125730397583238</v>
+        <v>0.7170542197587623</v>
       </c>
       <c r="J3">
-        <v>0.5125730397583238</v>
+        <v>0.7170542197587624</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>17.1101718230673</v>
+        <v>0.3811586666666666</v>
       </c>
       <c r="N3">
-        <v>17.1101718230673</v>
+        <v>1.143476</v>
       </c>
       <c r="O3">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="P3">
-        <v>0.9422954656392161</v>
+        <v>0.009856828012032942</v>
       </c>
       <c r="Q3">
-        <v>30.31194182505632</v>
+        <v>1.749169011608444</v>
       </c>
       <c r="R3">
-        <v>30.31194182505632</v>
+        <v>15.742521104476</v>
       </c>
       <c r="S3">
-        <v>0.4829952511731782</v>
+        <v>0.007067880119464593</v>
       </c>
       <c r="T3">
-        <v>0.4829952511731782</v>
+        <v>0.007067880119464594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.37651200289039</v>
+        <v>4.589083666666666</v>
       </c>
       <c r="H4">
-        <v>1.37651200289039</v>
+        <v>13.767251</v>
       </c>
       <c r="I4">
-        <v>0.3982688813599831</v>
+        <v>0.7170542197587623</v>
       </c>
       <c r="J4">
-        <v>0.3982688813599831</v>
+        <v>0.7170542197587624</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.04779714419334</v>
+        <v>18.712703</v>
       </c>
       <c r="N4">
-        <v>1.04779714419334</v>
+        <v>56.138109</v>
       </c>
       <c r="O4">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="P4">
-        <v>0.05770453436078394</v>
+        <v>0.4839136854063913</v>
       </c>
       <c r="Q4">
-        <v>1.442305345576405</v>
+        <v>85.87415969648433</v>
       </c>
       <c r="R4">
-        <v>1.442305345576405</v>
+        <v>772.867437268359</v>
       </c>
       <c r="S4">
-        <v>0.02298192034926812</v>
+        <v>0.3469923501196671</v>
       </c>
       <c r="T4">
-        <v>0.02298192034926812</v>
+        <v>0.3469923501196671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +714,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.37651200289039</v>
+        <v>4.589083666666666</v>
       </c>
       <c r="H5">
-        <v>1.37651200289039</v>
+        <v>13.767251</v>
       </c>
       <c r="I5">
-        <v>0.3982688813599831</v>
+        <v>0.7170542197587623</v>
       </c>
       <c r="J5">
-        <v>0.3982688813599831</v>
+        <v>0.7170542197587624</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>17.1101718230673</v>
+        <v>0.1430596666666667</v>
       </c>
       <c r="N5">
-        <v>17.1101718230673</v>
+        <v>0.429179</v>
       </c>
       <c r="O5">
-        <v>0.9422954656392161</v>
+        <v>0.003699547335821903</v>
       </c>
       <c r="P5">
-        <v>0.9422954656392161</v>
+        <v>0.003699547335821903</v>
       </c>
       <c r="Q5">
-        <v>23.55235688596909</v>
+        <v>0.6565127796587777</v>
       </c>
       <c r="R5">
-        <v>23.55235688596909</v>
+        <v>5.908615016929</v>
       </c>
       <c r="S5">
-        <v>0.375286961010715</v>
+        <v>0.002652776028348382</v>
       </c>
       <c r="T5">
-        <v>0.375286961010715</v>
+        <v>0.002652776028348383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.308151531488521</v>
+        <v>1.495525666666667</v>
       </c>
       <c r="H6">
-        <v>0.308151531488521</v>
+        <v>4.486577</v>
       </c>
       <c r="I6">
-        <v>0.08915807888169316</v>
+        <v>0.2336791106752255</v>
       </c>
       <c r="J6">
-        <v>0.08915807888169316</v>
+        <v>0.2336791106752255</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.04779714419334</v>
+        <v>19.43258433333333</v>
       </c>
       <c r="N6">
-        <v>1.04779714419334</v>
+        <v>58.29775300000001</v>
       </c>
       <c r="O6">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457537</v>
       </c>
       <c r="P6">
-        <v>0.05770453436078394</v>
+        <v>0.5025299392457538</v>
       </c>
       <c r="Q6">
-        <v>0.3228802946724764</v>
+        <v>29.06192864016456</v>
       </c>
       <c r="R6">
-        <v>0.3228802946724764</v>
+        <v>261.5573577614811</v>
       </c>
       <c r="S6">
-        <v>0.005144825426370148</v>
+        <v>0.1174307492906228</v>
       </c>
       <c r="T6">
-        <v>0.005144825426370148</v>
+        <v>0.1174307492906229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.495525666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.486577</v>
+      </c>
+      <c r="I7">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="J7">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3811586666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.143476</v>
+      </c>
+      <c r="O7">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="P7">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="Q7">
+        <v>0.5700325690724445</v>
+      </c>
+      <c r="R7">
+        <v>5.130293121652</v>
+      </c>
+      <c r="S7">
+        <v>0.002303334803930509</v>
+      </c>
+      <c r="T7">
+        <v>0.002303334803930509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.308151531488521</v>
-      </c>
-      <c r="H7">
-        <v>0.308151531488521</v>
-      </c>
-      <c r="I7">
-        <v>0.08915807888169316</v>
-      </c>
-      <c r="J7">
-        <v>0.08915807888169316</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>17.1101718230673</v>
-      </c>
-      <c r="N7">
-        <v>17.1101718230673</v>
-      </c>
-      <c r="O7">
-        <v>0.9422954656392161</v>
-      </c>
-      <c r="P7">
-        <v>0.9422954656392161</v>
-      </c>
-      <c r="Q7">
-        <v>5.272525651309928</v>
-      </c>
-      <c r="R7">
-        <v>5.272525651309928</v>
-      </c>
-      <c r="S7">
-        <v>0.08401325345532301</v>
-      </c>
-      <c r="T7">
-        <v>0.08401325345532301</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.495525666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.486577</v>
+      </c>
+      <c r="I8">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="J8">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.712703</v>
+      </c>
+      <c r="N8">
+        <v>56.138109</v>
+      </c>
+      <c r="O8">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="P8">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="Q8">
+        <v>27.98532762921034</v>
+      </c>
+      <c r="R8">
+        <v>251.867948662893</v>
+      </c>
+      <c r="S8">
+        <v>0.1130805196493364</v>
+      </c>
+      <c r="T8">
+        <v>0.1130805196493364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.495525666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.486577</v>
+      </c>
+      <c r="I9">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="J9">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.429179</v>
+      </c>
+      <c r="O9">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P9">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q9">
+        <v>0.2139494033647778</v>
+      </c>
+      <c r="R9">
+        <v>1.925544630283</v>
+      </c>
+      <c r="S9">
+        <v>0.000864506931335762</v>
+      </c>
+      <c r="T9">
+        <v>0.0008645069313357622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J10">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.43258433333333</v>
+      </c>
+      <c r="N10">
+        <v>58.29775300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5025299392457537</v>
+      </c>
+      <c r="P10">
+        <v>0.5025299392457538</v>
+      </c>
+      <c r="Q10">
+        <v>6.127139182996777</v>
+      </c>
+      <c r="R10">
+        <v>55.144252646971</v>
+      </c>
+      <c r="S10">
+        <v>0.02475797646384875</v>
+      </c>
+      <c r="T10">
+        <v>0.02475797646384876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J11">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3811586666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.143476</v>
+      </c>
+      <c r="O11">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="P11">
+        <v>0.009856828012032942</v>
+      </c>
+      <c r="Q11">
+        <v>0.1201802169702222</v>
+      </c>
+      <c r="R11">
+        <v>1.081621952732</v>
+      </c>
+      <c r="S11">
+        <v>0.0004856130886378403</v>
+      </c>
+      <c r="T11">
+        <v>0.0004856130886378403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J12">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.712703</v>
+      </c>
+      <c r="N12">
+        <v>56.138109</v>
+      </c>
+      <c r="O12">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="P12">
+        <v>0.4839136854063913</v>
+      </c>
+      <c r="Q12">
+        <v>5.900158918873666</v>
+      </c>
+      <c r="R12">
+        <v>53.10143026986299</v>
+      </c>
+      <c r="S12">
+        <v>0.02384081563738788</v>
+      </c>
+      <c r="T12">
+        <v>0.02384081563738788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J13">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1430596666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.429179</v>
+      </c>
+      <c r="O13">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="P13">
+        <v>0.003699547335821903</v>
+      </c>
+      <c r="Q13">
+        <v>0.04510704670588889</v>
+      </c>
+      <c r="R13">
+        <v>0.4059634203529999</v>
+      </c>
+      <c r="S13">
+        <v>0.0001822643761377586</v>
+      </c>
+      <c r="T13">
+        <v>0.0001822643761377586</v>
       </c>
     </row>
   </sheetData>
